--- a/Chapter01/FormatData.xlsx
+++ b/Chapter01/FormatData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10909"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Curt\Desktop\Exercise Files\Chapter01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scarstruck/Git/excel_pivot_tables/Chapter01/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E49592E-668D-0247-857B-8D257E639ED7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -100,7 +101,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -111,6 +132,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{60B567E9-EFB4-AC47-92C4-B3DA62338352}" name="Table1" displayName="Table1" ref="A1:C21" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:C21" xr:uid="{33A3EDEE-1E23-C046-A169-862877ECC6D1}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{D72B6481-F542-7242-B178-EC0CE27904B3}" name="Department"/>
+    <tableColumn id="2" xr3:uid="{1888DB51-DF5A-214A-9A6B-37BC0F60B61E}" name="Quarter"/>
+    <tableColumn id="3" xr3:uid="{63B35D9C-CE2C-594A-890C-9025258458B8}" name="Sales"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -375,21 +408,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -400,7 +433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -411,7 +444,7 @@
         <v>51992</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -422,7 +455,7 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -433,7 +466,7 @@
         <v>38092</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -444,7 +477,7 @@
         <v>33519</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -455,7 +488,7 @@
         <v>70127</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -466,7 +499,7 @@
         <v>54718</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -477,7 +510,7 @@
         <v>27576</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -488,7 +521,7 @@
         <v>26001</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -499,7 +532,7 @@
         <v>17579</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -510,7 +543,7 @@
         <v>23392</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -521,7 +554,7 @@
         <v>15770</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -532,7 +565,7 @@
         <v>64154</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -543,7 +576,7 @@
         <v>21909</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -554,7 +587,7 @@
         <v>55578</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -565,7 +598,7 @@
         <v>64046</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -576,7 +609,7 @@
         <v>46200</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -587,7 +620,7 @@
         <v>64682</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -598,7 +631,7 @@
         <v>20283</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -609,7 +642,7 @@
         <v>51359</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -622,5 +655,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>